--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Testing/OldImportLogic_ECON/ECON_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Testing/OldImportLogic_ECON/ECON_OldImportExpectedResult.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\ECON\OldImportLogic\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\OldImportLogic_ECON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6569F569-C43C-44F5-9F49-38B78727A875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDEC84D-59EB-4835-92D5-54FE606DB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="66">
   <si>
     <t>Publication Identifier</t>
   </si>
@@ -68,9 +68,6 @@
     <t>2+ Line</t>
   </si>
   <si>
-    <t>NR</t>
-  </si>
-  <si>
     <t>Utility Elicitation Method and Source</t>
   </si>
   <si>
@@ -86,182 +83,186 @@
     <t>Other Utility Data (Excluding point estimates)</t>
   </si>
   <si>
-    <t>Progression-free survival in docetaxel-resistant visceral mCRPC patients: 0.61
-Progression in docetaxel-resistant visceral mCRPC patients: 0.51
-Disutility values: 
-Grade III/IV anemia (-0.119)
-Grade III/IV diarrhea (-0.212)
-Grade III/IV fatigue (-0.473)
-Grade III/IV backpain (-0.067)
-Grade III/IV neutropenia (-0.131)
-Grade III/IV bone pain (-0.067)</t>
-  </si>
-  <si>
-    <t>2019 / USA</t>
-  </si>
-  <si>
-    <t>Barqawi_JME_2019</t>
-  </si>
-  <si>
-    <t>Cost-effectiveness model of abiraterone plus prednisone, cabazitaxel plus prednisone and enzalutamide for visceral metastatic castration resistant prostate cancer therapy after docetaxel therapy resistance</t>
-  </si>
-  <si>
-    <t>Visceral mCRPC patients resistant to docetaxel therapy</t>
-  </si>
-  <si>
-    <t>mCRPC</t>
-  </si>
-  <si>
-    <t>Docetaxel-treated patients in hormone-refractory PC, surviving patients at 12-month follow-up: 0.770
-Patients who died of other causes than prostate cancer: 0.564
-Patients 12 months before death due to prostate cancer: 0.538</t>
-  </si>
-  <si>
     <t>2018 / UK</t>
   </si>
   <si>
-    <t>Tan_MDM_2018</t>
-  </si>
-  <si>
-    <t>Bayesian Multiparameter Evidence Synthesis to Inform Decision Making: A Case Study in Metastatic Hormone-Refractory Prostate Cancer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Patients with mCRPC </t>
-  </si>
-  <si>
     <t>1 Line</t>
   </si>
   <si>
-    <t>PFS Abiraterone: 0.84</t>
-  </si>
-  <si>
-    <t>2018 / Netherlands</t>
-  </si>
-  <si>
-    <t>Ten Ham_VIH_2021</t>
-  </si>
-  <si>
-    <t>Cost-Effectiveness Assessment of Monitoring Abiraterone Levels in Metastatic Castration-Resistant Prostate Cancer Patients</t>
-  </si>
-  <si>
-    <t>Patients with mCRPC treated with abiraterone</t>
-  </si>
-  <si>
-    <t>First line treatment: 0.851
-Best Supportive Care 1: 0.625
-Docetaxel: 0.625
-Best Supportive Care 2: 0.700
-Post-docetaxel treatment: 0.700
-Best Supportive Care 3: 0.500</t>
-  </si>
-  <si>
-    <t>2019 / Portugal</t>
-  </si>
-  <si>
-    <t>Silva Miguel_ISPOR_2019 (abstract) &amp; Silva Miguel_ISPOR_2019 (poster)</t>
-  </si>
-  <si>
-    <t>Cost-utility analysis of abiraterone versus enzalutamide in the treatment of metastatic castration-resistant prostate cancer after failure of androgen deprivation therapy</t>
-  </si>
-  <si>
-    <t>COU-AA-302</t>
-  </si>
-  <si>
-    <t>Asymptomatic or mildly symptomatic mCRPC patients</t>
-  </si>
-  <si>
-    <t>Progression on Ra-223: 0.511
-Baseline on Ra-223: 0.617</t>
-  </si>
-  <si>
-    <t>2017 / Netherlands</t>
-  </si>
-  <si>
-    <t>Peters_AHEHP_2018</t>
-  </si>
-  <si>
-    <t>Dutch Economic Value of Radium-223 in Metastatic Castration Resistant Prostate Cancer</t>
-  </si>
-  <si>
-    <t>ALSYMPCA
-NCT00699751</t>
-  </si>
-  <si>
-    <t>Patients with mCRPC previously
-treated with docetaxel</t>
-  </si>
-  <si>
-    <t>No or mild symptoms; chemotherapy not yet clinically indicated (n=50). The mean EQ‑5D utility value = 0.83
-With symptoms; chemotherapy clinically indicated but not started (n=50). The mean EQ‑5D utility value = 0.63
-Having chemotherapy (n=17). The mean EQ‑5D utility value = 0.69
-After chemotherapy (n=46). The mean EQ‑5D utility value = 0.70</t>
-  </si>
-  <si>
-    <t>2016 / UK</t>
-  </si>
-  <si>
-    <t>TA387</t>
-  </si>
-  <si>
-    <t>Abiraterone for treating metastatic hormone-relapsed prostate cancer before chemotherapy is indicated</t>
-  </si>
-  <si>
-    <t>Metastatic hormone relapsed prostate cancer not previously treated with chemotherapy</t>
-  </si>
-  <si>
-    <t>Baseline utility value- people in stable disease state receiving BSC = 0.844 
-Utility increment Enzalutamide = 0.022
-Utility increment Abiraterone = 0.022
-On-treatment utility gain for  enzalutamide after docetaxel applied to people in BSC before docetaxel = 0.04</t>
-  </si>
-  <si>
-    <t>TA377</t>
-  </si>
-  <si>
-    <t>Enzalutamide for treating metastatic hormone-relapsed prostate cancer before chemotherapy is indicated</t>
-  </si>
-  <si>
-    <t>Metastatic, hormone-relapsed prostate cancer for people in whom chemotherapy is not yet clinically indicated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Baseline =  0.83 
-Docetaxel = 0.692 
-Post-docetaxel treatment = 0.70 </t>
-  </si>
-  <si>
-    <t>2015 / Scotland</t>
-  </si>
-  <si>
-    <t>873/13</t>
-  </si>
-  <si>
-    <t>Abiraterone acetate (Zytiga®) is accepted for use  within NHS Scotland</t>
-  </si>
-  <si>
-    <t>Metastatic castration resistant prostate cancer (mCRPC) in adult men who are asymptomatic or mildly symptomatic after failure of androgen deprivation therapy in whom chemotherapy is not yet clinically indicated</t>
-  </si>
-  <si>
-    <t>PFS state-at baseline = 0.68
-PFS state-at treatment cycle 10 = 0.82
- EAP-progressed = 0.63</t>
-  </si>
-  <si>
-    <t>2016 / Scotland</t>
-  </si>
-  <si>
-    <t>735/11</t>
-  </si>
-  <si>
-    <t>Cabazitaxel (Jevtana®) is accepted for restricted use within NHS Scotland</t>
-  </si>
-  <si>
-    <t>TROPIC</t>
-  </si>
-  <si>
-    <t>Adult patients with hormone refractory metastatic prostate cancer previously treated with a docetaxel-containing regimen</t>
-  </si>
-  <si>
     <t>Study Identifier</t>
+  </si>
+  <si>
+    <t>Gibson_CEOR_2020</t>
+  </si>
+  <si>
+    <t>Economic Evaluation of Single versus Combination Immuno-Oncology Therapies: Application of a Novel Modelling Approach in Metastatic Melanoma</t>
+  </si>
+  <si>
+    <t>CheckMate-067
+NCT01844505</t>
+  </si>
+  <si>
+    <t>Treatment-naïve patients with metastatic melanoma</t>
+  </si>
+  <si>
+    <t>Metastatic Melanoma</t>
+  </si>
+  <si>
+    <t>Pre-progression (non-responders): 0.77
+Pre-progression (responders): 0.85
+Post-progression/Post I-O progression: 0.59 (0.02)
+Source: Beusterien et al.</t>
+  </si>
+  <si>
+    <t>2020 / UK</t>
+  </si>
+  <si>
+    <t>2019 / UK</t>
+  </si>
+  <si>
+    <t>2016 / USA</t>
+  </si>
+  <si>
+    <t>2015 / USA</t>
+  </si>
+  <si>
+    <t>2015 / Australia</t>
+  </si>
+  <si>
+    <t>Gibson_JME_2019</t>
+  </si>
+  <si>
+    <t>Cohort versus patient level simulation for the economic evaluation of single versus combination immuno-oncology therapies in metastatic melanoma.</t>
+  </si>
+  <si>
+    <t>Pre-progression (non-responders): 0.77 (0.02)
+Pre-progression (responders): 0.85 (0.02)
+No immune response: 0.59 (0.02)
+Post-response progression: 0.59 (0.02)
+Source: Beusterien et al.</t>
+  </si>
+  <si>
+    <t>Gibson_CEOR_2018</t>
+  </si>
+  <si>
+    <t>Modeling the economic outcomes of immuno-oncology drugs: Alternative model frameworks to capture clinical outcomes.</t>
+  </si>
+  <si>
+    <t>CheckMate-066
+NCT00094653.8</t>
+  </si>
+  <si>
+    <t>Treatment-naïve melanoma patients without the BRAF mutation</t>
+  </si>
+  <si>
+    <t>BRAF+</t>
+  </si>
+  <si>
+    <t>Nonfatal progression-free event: 0.80239
+Nonfatal progression: 0.72839
+Preprogression without response: 0.77040
+Pre-progression with response: 0.85040
+Post progression/post I-O progression: 0.59040
+Source: UK prospective study of patient-level data from P3 RCT (CheckMate 066)</t>
+  </si>
+  <si>
+    <t>Kohn_JCO_2017</t>
+  </si>
+  <si>
+    <t>Cost-Effectiveness of Immune Checkpoint Inhibition in BRAF Wild-Type Advanced Melanoma.</t>
+  </si>
+  <si>
+    <t>CheckMate-066
+NCT00094653.8
+CheckMate-067
+CheckMate-037
+KEYNOTE-006
+NCT00094653</t>
+  </si>
+  <si>
+    <t>Patients with advanced melanoma</t>
+  </si>
+  <si>
+    <t>Advanced</t>
+  </si>
+  <si>
+    <t>Patients with advanced melanoma with the same characteristics as those patients enrolled in CheckMate-066, CheckMate-067, CheckMate-037, KEYNOTE-006, and NCT00094653</t>
+  </si>
+  <si>
+    <t>Base state: 0.80 (0.75-0.84)
+Complete or partial treatment response: 0.88 (0.83-0.92)
+Progressive disease: 0.52 (0.44-0.61)
+Source: published literature</t>
+  </si>
+  <si>
+    <t>Oh_JMCP_2017</t>
+  </si>
+  <si>
+    <t>Cost-Effectiveness of Nivolumab-Ipilimumab Combination Therapy Compared with Monotherapy for First-Line Treatment of Metastatic Melanoma in the United States.</t>
+  </si>
+  <si>
+    <t>Patients from CheckMate-067 for the first-line treatment of confirmed stage III or IV unresectable metastatic melanoma</t>
+  </si>
+  <si>
+    <t>Unresectable</t>
+  </si>
+  <si>
+    <t>Adult patients with BRAFV600-mutated unresectable/metastatic melanoma with ECOG PS score 0 or 1</t>
+  </si>
+  <si>
+    <t>PD base-case: 0.433 (0.325-0.542)
+NIVO PD/death: 0.084 (0.063-0.106)
+IPI PD/death: 0.082 (0.062-0.104)
+NIVO+IPI PD/death: 0.072 (0.054-0.091)
+Source: published literature (using melanoma-specific studies)</t>
+  </si>
+  <si>
+    <t>PFS: 0.83 (0.82-0.84) IPI, 0.86 (0.85-0.87) PEM
+Post progression: 0.78 (0.75-0.80)
+Source: patient-level EQ-5D values from P3 RCT (KN006) using US-based algorithm.</t>
+  </si>
+  <si>
+    <t>Base-case: 0.828 (pre-progression); 0.798 (post-progression
+Ranges in one-way sensitivity: 0.662-0.994, 0.893 (QLQ-C30) [pre-progression]; 0.638-0.958, 0.853 (QLQ-C30) [post-progression]
+Source: EQ-5D data from CA209066 P3 RCT</t>
+  </si>
+  <si>
+    <t>Wang_JMCSP_2017</t>
+  </si>
+  <si>
+    <t>Cost-Effectiveness of Pembrolizumab Versus Ipilimumab in Ipilimumab-Naive Patients with Advanced Melanoma in the United States.</t>
+  </si>
+  <si>
+    <t>KEYNOTE-006
+NCT01866319</t>
+  </si>
+  <si>
+    <t>Ipilimumab-naive patients with advanced melanoma</t>
+  </si>
+  <si>
+    <t>Patients with advanced melanoma who have not received ipilimumab, but may have had other therapy such as BRAFi</t>
+  </si>
+  <si>
+    <t>1+ Line</t>
+  </si>
+  <si>
+    <t>Patients with BRAF wild-type advanced melanoma</t>
+  </si>
+  <si>
+    <t>Advanced, BRAF+</t>
+  </si>
+  <si>
+    <t>Previously untreated patients with BRAF-advanced melanoma</t>
+  </si>
+  <si>
+    <t>CA209066
+MDX010-020</t>
+  </si>
+  <si>
+    <t>A Cost-Effectiveness Analysis of Nivolumab Compared with Ipilimumab for the Treatment of BRAF Wild-Type Advanced Melanoma in Australia</t>
+  </si>
+  <si>
+    <t>Bohensky_VH_2016</t>
   </si>
 </sst>
 </file>
@@ -447,15 +448,15 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="12" fillId="6" borderId="2" xfId="19">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Bad 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -704,11 +705,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B9C3608-0A92-4859-BFFD-64E3BA37D68F}">
-  <dimension ref="A1:O10"/>
+  <dimension ref="A1:O9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -729,50 +730,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L1" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>12</v>
+      <c r="O1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -791,358 +792,283 @@
       <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
+      <c r="F2" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I2" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="M2" s="4"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="4"/>
+      <c r="K2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
     </row>
     <row r="3" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" t="s">
         <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" t="s">
+        <v>17</v>
+      </c>
+      <c r="K3" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" t="s">
-        <v>28</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
+      <c r="L3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
     </row>
     <row r="4" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
         <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>11</v>
+        <v>34</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>33</v>
+        <v>37</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>36</v>
       </c>
       <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-      <c r="O4" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
     </row>
     <row r="5" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="B5">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
         <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="G5" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="H5" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="J5" t="s">
-        <v>28</v>
-      </c>
-      <c r="K5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>27</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
     </row>
     <row r="6" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>21</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="H6" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="J6" t="s">
-        <v>10</v>
-      </c>
-      <c r="K6" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-      <c r="O6" s="4"/>
+        <v>17</v>
+      </c>
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
     </row>
     <row r="7" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
         <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E7" t="s">
-        <v>49</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>55</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="G7" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="H7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="J7" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-      <c r="O7" s="4"/>
+        <v>59</v>
+      </c>
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="M7" s="3"/>
+      <c r="N7" s="3"/>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
         <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>52</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="G8" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" t="s">
-        <v>54</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="J8" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
+      <c r="M8" s="3"/>
+      <c r="N8" s="3"/>
+      <c r="O8" s="3"/>
     </row>
     <row r="9" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>36</v>
-      </c>
-      <c r="B9">
-        <v>36</v>
-      </c>
-      <c r="C9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" t="s">
-        <v>57</v>
-      </c>
-      <c r="E9" t="s">
-        <v>58</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" t="s">
-        <v>59</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J9" t="s">
-        <v>10</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-    </row>
-    <row r="10" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>41</v>
-      </c>
-      <c r="B10">
-        <v>41</v>
-      </c>
-      <c r="C10" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" t="s">
-        <v>62</v>
-      </c>
-      <c r="E10" t="s">
-        <v>63</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="G10" t="s">
-        <v>65</v>
-      </c>
-      <c r="H10" t="s">
-        <v>22</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="J10" t="s">
-        <v>10</v>
-      </c>
-      <c r="K10" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
+      <c r="F9" s="2"/>
+      <c r="I9" s="3"/>
+      <c r="M9" s="3"/>
+      <c r="N9" s="3"/>
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="1">
@@ -1156,6 +1082,29 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
+      <UserInfo>
+        <DisplayName>Brent Rine</DisplayName>
+        <AccountId>23</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1366,30 +1315,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="4654e9f1-a236-4d55-b6c2-932c37e5d109">
-      <UserInfo>
-        <DisplayName>Brent Rine</DisplayName>
-        <AccountId>23</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1406,29 +1357,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="c267871d-e92d-4bec-a268-edb541a91654"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="4654e9f1-a236-4d55-b6c2-932c37e5d109"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Testdata/Templates/UtilityOutcome/QOL_ECON_Testing/OldImportLogic_ECON/ECON_OldImportExpectedResult.xlsx
+++ b/Testdata/Templates/UtilityOutcome/QOL_ECON_Testing/OldImportLogic_ECON/ECON_OldImportExpectedResult.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\VersionControl\pse.autotest\Testdata\Templates\UtilityOutcome\QOL_ECON_Testing\OldImportLogic_ECON\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CDEC84D-59EB-4835-92D5-54FE606DB060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A867E3E-46B4-465A-BFFA-69D1D0023AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ExpectedReportData" sheetId="2" r:id="rId1"/>
@@ -53,13 +53,7 @@
     <t>Population</t>
   </si>
   <si>
-    <t>Sub-population</t>
-  </si>
-  <si>
     <t>Inclusion Criteria</t>
-  </si>
-  <si>
-    <t>Line of Therapy</t>
   </si>
   <si>
     <t>Original</t>
@@ -263,6 +257,12 @@
   </si>
   <si>
     <t>Bohensky_VH_2016</t>
+  </si>
+  <si>
+    <t>Population filter 2</t>
+  </si>
+  <si>
+    <t>Population filter 1</t>
   </si>
 </sst>
 </file>
@@ -456,7 +456,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="20">
     <cellStyle name="Bad 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -709,7 +709,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -731,7 +731,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -752,28 +752,28 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>8</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
@@ -784,34 +784,34 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="H2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>25</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
@@ -825,34 +825,34 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K3" t="s">
+        <v>24</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>30</v>
-      </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" t="s">
-        <v>17</v>
-      </c>
-      <c r="K3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
@@ -866,34 +866,34 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" t="s">
         <v>35</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="J4" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="H4" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="J4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>38</v>
       </c>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
@@ -907,34 +907,34 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
         <v>40</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="H5" t="s">
         <v>41</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="J5" t="s">
-        <v>10</v>
-      </c>
-      <c r="K5" t="s">
-        <v>27</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
@@ -948,34 +948,34 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G6" t="s">
         <v>46</v>
       </c>
-      <c r="E6" t="s">
+      <c r="H6" t="s">
         <v>47</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G6" t="s">
+      <c r="I6" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="H6" t="s">
+      <c r="J6" t="s">
+        <v>15</v>
+      </c>
+      <c r="K6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>49</v>
-      </c>
-      <c r="I6" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="J6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
-      </c>
-      <c r="L6" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
@@ -989,34 +989,34 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E7" t="s">
+      <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="H7" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="G7" t="s">
+      <c r="J7" t="s">
         <v>57</v>
       </c>
-      <c r="H7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="J7" t="s">
-        <v>59</v>
-      </c>
       <c r="K7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="L7" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="M7" s="3"/>
       <c r="N7" s="3"/>
@@ -1030,34 +1030,34 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="H8" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K8" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L8" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M8" s="3"/>
       <c r="N8" s="3"/>
@@ -1096,15 +1096,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BBCC0D8A7D6FE0469D1BA865BCA834CE" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b34b9c2d2d2ae622ceb9becde627447d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c267871d-e92d-4bec-a268-edb541a91654" xmlns:ns3="4654e9f1-a236-4d55-b6c2-932c37e5d109" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="754865f092840b442e748268bc313caa" ns2:_="" ns3:_="">
     <xsd:import namespace="c267871d-e92d-4bec-a268-edb541a91654"/>
@@ -1315,6 +1306,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4AA33094-6942-48DE-9F4F-C923660B2492}">
   <ds:schemaRefs>
@@ -1333,14 +1333,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBE9E4E5-BB7D-4CF3-8EE0-EAFAD5786BE1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1357,4 +1349,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2A2AA17B-CA28-47AB-9F1B-CF2D00CC15D4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>